--- a/SPRING 20/CSE 306/Section 2/online_attendance_cse306_sec2.xlsx
+++ b/SPRING 20/CSE 306/Section 2/online_attendance_cse306_sec2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ulab_course_materials\SPRING 20\CSE 306\Section 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3CBAD89-7758-4813-896A-3D651CCD0F2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAC640FE-5503-4541-947E-7D3581FD1426}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="44">
   <si>
     <t>SL</t>
   </si>
@@ -134,18 +134,52 @@
   </si>
   <si>
     <t>p</t>
+  </si>
+  <si>
+    <t>29.03.2020</t>
+  </si>
+  <si>
+    <t>Marks</t>
+  </si>
+  <si>
+    <t>Final Marks</t>
+  </si>
+  <si>
+    <t>Final Impact Raw</t>
+  </si>
+  <si>
+    <t>Final Impact</t>
+  </si>
+  <si>
+    <t>Attendance</t>
+  </si>
+  <si>
+    <t>Final Total</t>
+  </si>
+  <si>
+    <t>Convert to</t>
+  </si>
+  <si>
+    <t>Free Marks</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="ARIAL"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
@@ -219,77 +253,79 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{0A458126-BE70-44E3-AAF7-1E8D099243A3}"/>
   </cellStyles>
   <dxfs count="14">
     <dxf>
@@ -418,11 +454,11 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="0"/>
+        <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -828,10 +864,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:N57"/>
   <sheetViews>
     <sheetView tabSelected="1" showOutlineSymbols="0" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="Q29" sqref="Q29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -839,12 +875,13 @@
     <col min="1" max="1" width="7.77734375" style="8" customWidth="1"/>
     <col min="2" max="2" width="14.77734375" style="10" customWidth="1"/>
     <col min="3" max="3" width="30.77734375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="14.77734375" style="10" customWidth="1"/>
-    <col min="5" max="5" width="10" style="8"/>
-    <col min="6" max="16384" width="10" style="1"/>
+    <col min="4" max="5" width="14.77734375" style="10" customWidth="1"/>
+    <col min="6" max="9" width="10" style="1"/>
+    <col min="10" max="14" width="15.77734375" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="10" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -857,8 +894,26 @@
       <c r="D1" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -869,8 +924,39 @@
         <v>7</v>
       </c>
       <c r="D2" s="9"/>
-    </row>
-    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E2" s="9"/>
+      <c r="F2" s="1">
+        <v>132014005</v>
+      </c>
+      <c r="H2" s="1">
+        <f>IF(D2="p",2.5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
+        <f>IF(E2="p",2.5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <f>SUM(H2:I2)</f>
+        <v>0</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1">
+        <f>(K2/$E$55)*$E$56</f>
+        <v>0</v>
+      </c>
+      <c r="M2" s="1">
+        <f>ROUND(L2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N2" s="1">
+        <f>J2+M2+$E$57</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -881,8 +967,39 @@
         <v>8</v>
       </c>
       <c r="D3" s="9"/>
-    </row>
-    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E3" s="9"/>
+      <c r="F3" s="1">
+        <v>151014074</v>
+      </c>
+      <c r="H3" s="1">
+        <f t="shared" ref="H3:H27" si="0">IF(D3="p",2.5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <f t="shared" ref="I3:I27" si="1">IF(E3="p",2.5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <f t="shared" ref="J3:J27" si="2">SUM(H3:I3)</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
+        <v>16.5</v>
+      </c>
+      <c r="L3" s="1">
+        <f t="shared" ref="L3:L27" si="3">(K3/$E$55)*$E$56</f>
+        <v>5.28</v>
+      </c>
+      <c r="M3" s="1">
+        <f t="shared" ref="M3:M27" si="4">ROUND(L3,0)</f>
+        <v>5</v>
+      </c>
+      <c r="N3" s="1">
+        <f t="shared" ref="N3:N27" si="5">J3+M3+$E$57</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -893,8 +1010,39 @@
         <v>9</v>
       </c>
       <c r="D4" s="9"/>
-    </row>
-    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E4" s="9"/>
+      <c r="F4" s="1">
+        <v>161014016</v>
+      </c>
+      <c r="H4" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
+        <v>18.5</v>
+      </c>
+      <c r="L4" s="1">
+        <f t="shared" si="3"/>
+        <v>5.92</v>
+      </c>
+      <c r="M4" s="1">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="N4" s="1">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -907,8 +1055,39 @@
       <c r="D5" s="9" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E5" s="9"/>
+      <c r="F5" s="1">
+        <v>162014031</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="I5" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M5" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N5" s="1">
+        <f t="shared" si="5"/>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -921,8 +1100,39 @@
       <c r="D6" s="9" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E6" s="9"/>
+      <c r="F6" s="1">
+        <v>171014018</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
+      <c r="K6" s="1">
+        <v>18</v>
+      </c>
+      <c r="L6" s="1">
+        <f t="shared" si="3"/>
+        <v>5.76</v>
+      </c>
+      <c r="M6" s="1">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="N6" s="1">
+        <f t="shared" si="5"/>
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -933,8 +1143,41 @@
         <v>12</v>
       </c>
       <c r="D7" s="9"/>
-    </row>
-    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E7" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="1">
+        <v>171014045</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+      <c r="J7" s="1">
+        <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
+      <c r="K7" s="1">
+        <v>17.5</v>
+      </c>
+      <c r="L7" s="1">
+        <f t="shared" si="3"/>
+        <v>5.6</v>
+      </c>
+      <c r="M7" s="1">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="N7" s="1">
+        <f t="shared" si="5"/>
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -945,8 +1188,39 @@
         <v>13</v>
       </c>
       <c r="D8" s="9"/>
-    </row>
-    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E8" s="9"/>
+      <c r="F8" s="1">
+        <v>171014057</v>
+      </c>
+      <c r="H8" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M8" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N8" s="1">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>8</v>
       </c>
@@ -957,8 +1231,39 @@
         <v>14</v>
       </c>
       <c r="D9" s="9"/>
-    </row>
-    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E9" s="9"/>
+      <c r="F9" s="1">
+        <v>171014062</v>
+      </c>
+      <c r="H9" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="1">
+        <v>16.5</v>
+      </c>
+      <c r="L9" s="1">
+        <f t="shared" si="3"/>
+        <v>5.28</v>
+      </c>
+      <c r="M9" s="1">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="N9" s="1">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -969,8 +1274,39 @@
         <v>15</v>
       </c>
       <c r="D10" s="9"/>
-    </row>
-    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E10" s="9"/>
+      <c r="F10" s="1">
+        <v>172014033</v>
+      </c>
+      <c r="H10" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="1">
+        <v>17</v>
+      </c>
+      <c r="L10" s="1">
+        <f t="shared" si="3"/>
+        <v>5.44</v>
+      </c>
+      <c r="M10" s="1">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="N10" s="1">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -983,8 +1319,41 @@
       <c r="D11" s="9" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E11" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="1">
+        <v>172014051</v>
+      </c>
+      <c r="H11" s="1">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="I11" s="1">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+      <c r="J11" s="1">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="K11" s="1">
+        <v>16</v>
+      </c>
+      <c r="L11" s="1">
+        <f t="shared" si="3"/>
+        <v>5.12</v>
+      </c>
+      <c r="M11" s="1">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="N11" s="1">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>11</v>
       </c>
@@ -997,8 +1366,41 @@
       <c r="D12" s="9" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E12" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="1">
+        <v>172014052</v>
+      </c>
+      <c r="H12" s="1">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="I12" s="1">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+      <c r="J12" s="1">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="K12" s="1">
+        <v>16</v>
+      </c>
+      <c r="L12" s="1">
+        <f t="shared" si="3"/>
+        <v>5.12</v>
+      </c>
+      <c r="M12" s="1">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="N12" s="1">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>12</v>
       </c>
@@ -1009,8 +1411,39 @@
         <v>18</v>
       </c>
       <c r="D13" s="9"/>
-    </row>
-    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E13" s="9"/>
+      <c r="F13" s="1">
+        <v>173014038</v>
+      </c>
+      <c r="H13" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="1">
+        <v>15</v>
+      </c>
+      <c r="L13" s="1">
+        <f t="shared" si="3"/>
+        <v>4.8</v>
+      </c>
+      <c r="M13" s="1">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="N13" s="1">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>13</v>
       </c>
@@ -1020,9 +1453,44 @@
       <c r="C14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="9"/>
-    </row>
-    <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D14" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="1">
+        <v>173014050</v>
+      </c>
+      <c r="H14" s="1">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="I14" s="1">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+      <c r="J14" s="1">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="K14" s="1">
+        <v>21</v>
+      </c>
+      <c r="L14" s="1">
+        <f t="shared" si="3"/>
+        <v>6.72</v>
+      </c>
+      <c r="M14" s="1">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="N14" s="1">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>14</v>
       </c>
@@ -1033,8 +1501,39 @@
         <v>20</v>
       </c>
       <c r="D15" s="9"/>
-    </row>
-    <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E15" s="9"/>
+      <c r="F15" s="1">
+        <v>181014002</v>
+      </c>
+      <c r="H15" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="1">
+        <v>17.5</v>
+      </c>
+      <c r="L15" s="1">
+        <f t="shared" si="3"/>
+        <v>5.6</v>
+      </c>
+      <c r="M15" s="1">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="N15" s="1">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>15</v>
       </c>
@@ -1047,8 +1546,41 @@
       <c r="D16" s="9" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E16" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" s="1">
+        <v>181014012</v>
+      </c>
+      <c r="H16" s="1">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="I16" s="1">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+      <c r="J16" s="1">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="K16" s="1">
+        <v>16</v>
+      </c>
+      <c r="L16" s="1">
+        <f t="shared" si="3"/>
+        <v>5.12</v>
+      </c>
+      <c r="M16" s="1">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="N16" s="1">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>16</v>
       </c>
@@ -1059,8 +1591,39 @@
         <v>22</v>
       </c>
       <c r="D17" s="9"/>
-    </row>
-    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E17" s="9"/>
+      <c r="F17" s="1">
+        <v>181014033</v>
+      </c>
+      <c r="H17" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J17" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0</v>
+      </c>
+      <c r="L17" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M17" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N17" s="1">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>17</v>
       </c>
@@ -1071,8 +1634,39 @@
         <v>23</v>
       </c>
       <c r="D18" s="9"/>
-    </row>
-    <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E18" s="9"/>
+      <c r="F18" s="1">
+        <v>182014002</v>
+      </c>
+      <c r="H18" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="1">
+        <v>18.5</v>
+      </c>
+      <c r="L18" s="1">
+        <f t="shared" si="3"/>
+        <v>5.92</v>
+      </c>
+      <c r="M18" s="1">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="N18" s="1">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>18</v>
       </c>
@@ -1085,8 +1679,39 @@
       <c r="D19" s="9" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E19" s="9"/>
+      <c r="F19" s="1">
+        <v>182014030</v>
+      </c>
+      <c r="H19" s="1">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="I19" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="1">
+        <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
+      <c r="K19" s="1">
+        <v>17.5</v>
+      </c>
+      <c r="L19" s="1">
+        <f t="shared" si="3"/>
+        <v>5.6</v>
+      </c>
+      <c r="M19" s="1">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="N19" s="1">
+        <f t="shared" si="5"/>
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>19</v>
       </c>
@@ -1099,8 +1724,41 @@
       <c r="D20" s="9" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E20" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F20" s="1">
+        <v>182014052</v>
+      </c>
+      <c r="H20" s="1">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="I20" s="1">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+      <c r="J20" s="1">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="K20" s="1">
+        <v>18.5</v>
+      </c>
+      <c r="L20" s="1">
+        <f t="shared" si="3"/>
+        <v>5.92</v>
+      </c>
+      <c r="M20" s="1">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="N20" s="1">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>20</v>
       </c>
@@ -1111,8 +1769,39 @@
         <v>26</v>
       </c>
       <c r="D21" s="9"/>
-    </row>
-    <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E21" s="9"/>
+      <c r="F21" s="1">
+        <v>182014055</v>
+      </c>
+      <c r="H21" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I21" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J21" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="1">
+        <v>16</v>
+      </c>
+      <c r="L21" s="1">
+        <f t="shared" si="3"/>
+        <v>5.12</v>
+      </c>
+      <c r="M21" s="1">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="N21" s="1">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>21</v>
       </c>
@@ -1123,8 +1812,39 @@
         <v>27</v>
       </c>
       <c r="D22" s="9"/>
-    </row>
-    <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E22" s="9"/>
+      <c r="F22" s="1">
+        <v>183014009</v>
+      </c>
+      <c r="H22" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I22" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J22" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K22" s="1">
+        <v>0</v>
+      </c>
+      <c r="L22" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M22" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N22" s="1">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>22</v>
       </c>
@@ -1137,8 +1857,39 @@
       <c r="D23" s="9" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E23" s="9"/>
+      <c r="F23" s="1">
+        <v>183014035</v>
+      </c>
+      <c r="H23" s="1">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="I23" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J23" s="1">
+        <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
+      <c r="K23" s="1">
+        <v>18.5</v>
+      </c>
+      <c r="L23" s="1">
+        <f t="shared" si="3"/>
+        <v>5.92</v>
+      </c>
+      <c r="M23" s="1">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="N23" s="1">
+        <f t="shared" si="5"/>
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>23</v>
       </c>
@@ -1149,8 +1900,41 @@
         <v>29</v>
       </c>
       <c r="D24" s="9"/>
-    </row>
-    <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E24" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F24" s="1">
+        <v>183014050</v>
+      </c>
+      <c r="H24" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I24" s="1">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+      <c r="J24" s="1">
+        <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
+      <c r="K24" s="1">
+        <v>22</v>
+      </c>
+      <c r="L24" s="1">
+        <f t="shared" si="3"/>
+        <v>7.04</v>
+      </c>
+      <c r="M24" s="1">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="N24" s="1">
+        <f t="shared" si="5"/>
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>24</v>
       </c>
@@ -1163,8 +1947,39 @@
       <c r="D25" s="9" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E25" s="9"/>
+      <c r="F25" s="1">
+        <v>183014073</v>
+      </c>
+      <c r="H25" s="1">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="I25" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J25" s="1">
+        <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
+      <c r="K25" s="1">
+        <v>17</v>
+      </c>
+      <c r="L25" s="1">
+        <f t="shared" si="3"/>
+        <v>5.44</v>
+      </c>
+      <c r="M25" s="1">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="N25" s="1">
+        <f t="shared" si="5"/>
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>25</v>
       </c>
@@ -1177,8 +1992,41 @@
       <c r="D26" s="9" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E26" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F26" s="1">
+        <v>183014079</v>
+      </c>
+      <c r="H26" s="1">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="I26" s="1">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+      <c r="J26" s="1">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="K26" s="1">
+        <v>16.5</v>
+      </c>
+      <c r="L26" s="1">
+        <f t="shared" si="3"/>
+        <v>5.28</v>
+      </c>
+      <c r="M26" s="1">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="N26" s="1">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>26</v>
       </c>
@@ -1189,122 +2037,202 @@
         <v>32</v>
       </c>
       <c r="D27" s="9"/>
-    </row>
-    <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E27" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F27" s="1">
+        <v>191014033</v>
+      </c>
+      <c r="H27" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I27" s="1">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+      <c r="J27" s="1">
+        <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
+      <c r="K27" s="1">
+        <v>20</v>
+      </c>
+      <c r="L27" s="1">
+        <f t="shared" si="3"/>
+        <v>6.4</v>
+      </c>
+      <c r="M27" s="1">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="N27" s="1">
+        <f t="shared" si="5"/>
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
       <c r="B28" s="9"/>
       <c r="D28" s="9">
         <f>COUNTIF(D2:D27,"=p")</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="E28" s="9">
+        <f>COUNTIF(E2:E27,"=p")</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
       <c r="B29" s="9"/>
       <c r="D29" s="9"/>
-    </row>
-    <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E29" s="9"/>
+    </row>
+    <row r="30" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
       <c r="B30" s="9"/>
       <c r="D30" s="9"/>
-    </row>
-    <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E30" s="9"/>
+    </row>
+    <row r="31" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
       <c r="B31" s="9"/>
       <c r="D31" s="9"/>
-    </row>
-    <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E31" s="9"/>
+    </row>
+    <row r="32" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
       <c r="B32" s="9"/>
       <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
     </row>
     <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="9"/>
       <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
     </row>
     <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="9"/>
       <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
     </row>
     <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
       <c r="B35" s="9"/>
       <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
     </row>
     <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
       <c r="B36" s="9"/>
       <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
     </row>
     <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
       <c r="B37" s="9"/>
       <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
     </row>
     <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="7"/>
       <c r="B38" s="9"/>
       <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
     </row>
     <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="7"/>
       <c r="B39" s="9"/>
       <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
     </row>
     <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
       <c r="B40" s="9"/>
       <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
     </row>
     <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
       <c r="B41" s="9"/>
       <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
     </row>
     <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="9"/>
       <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
     </row>
     <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="9"/>
       <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
     </row>
     <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="9"/>
       <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
     </row>
     <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="9"/>
       <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
     </row>
     <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="9"/>
       <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
     </row>
     <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="9"/>
       <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
       <c r="F47" s="5"/>
     </row>
     <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F48" s="5"/>
     </row>
-    <row r="49" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F49" s="5"/>
     </row>
-    <row r="50" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F50" s="5"/>
     </row>
-    <row r="51" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F51" s="5"/>
     </row>
+    <row r="55" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D55" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E55" s="10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="56" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D56" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E56" s="10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D57" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E57" s="10">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:XFD47">
-    <cfRule type="expression" dxfId="13" priority="1">
-      <formula>$E2 &gt; 0</formula>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="F2:F27">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
+      <formula>$B2</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
